--- a/samples/config_folder/Data Dictionary.xlsx
+++ b/samples/config_folder/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\Downloads\samples\config_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759A2CB4-A132-4514-B37B-47D63A8243E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9BFB22-4A69-44E0-8283-E2566A53660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5124" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="666" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Types" sheetId="9" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="config_sheet" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Field Types'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Field Types'!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Field Type</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Direct</t>
   </si>
   <si>
-    <t>Unique Personal Identifier</t>
-  </si>
-  <si>
     <t>Examples</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Smith</t>
-  </si>
-  <si>
-    <t>Represents a personal identifier that can be used to uniquely identify an individual or company</t>
   </si>
   <si>
     <t>Rule 1</t>
@@ -206,31 +200,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Use this field type to flag personal identifiers - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>sensitive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Personal identifiers are always deemed sensitive data</t>
-    </r>
-  </si>
-  <si>
     <t>Any15</t>
   </si>
   <si>
@@ -324,8 +293,7 @@
     <t>maturity-level</t>
   </si>
   <si>
-    <t>0545673467083 - an account number
-jsmith1 - a user identifier</t>
+    <t>X-Request-ID,ETag,If-Match,Idempotency-Key</t>
   </si>
 </sst>
 </file>
@@ -1861,19 +1829,19 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.8984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="90.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="55.59765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.59765625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="81.09765625" style="9"/>
   </cols>
   <sheetData>
@@ -1885,84 +1853,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7">
         <v>112233</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1971,16 +1939,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1989,39 +1957,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2036,8 +1986,8 @@
   </sheetPr>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2122,31 +2072,31 @@
         <v>20</v>
       </c>
       <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
         <v>42</v>
-      </c>
-      <c r="U1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
       </c>
       <c r="Y1" t="s">
         <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA1" t="s">
         <v>22</v>
@@ -2159,7 +2109,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2185,7 +2135,7 @@
         <v>23</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>24</v>
@@ -2201,9 +2151,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2228,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>24</v>
@@ -2311,7 +2259,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>'Field Types'!$A$2:$A$8</xm:f>
+            <xm:f>'Field Types'!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:X5</xm:sqref>
         </x14:dataValidation>
@@ -2329,7 +2277,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2342,29 +2290,31 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
